--- a/www.eia.gov/electricity/monthly/xls/table_2_08_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_08_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Table 2.8.A. Consumption of Coal for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Thousand Tons)</t>
+    <t>November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -73,6 +73,9 @@
     <t>Connecticut</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>Vermont</t>
@@ -1356,25 +1356,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.59</v>
+        <v>-0.7</v>
       </c>
       <c r="E6" s="13">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="13">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="13">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="13">
-        <v>0.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="16">
-        <v>7</v>
-      </c>
-      <c r="D7" s="17">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1429,16 +1429,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="16">
         <v>1</v>
       </c>
       <c r="C8" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.16</v>
+        <v>0.16</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1459,24 +1459,24 @@
         <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="L8" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="16">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H9" s="16">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1500,27 +1500,27 @@
         <v>14</v>
       </c>
       <c r="L9" s="16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.99</v>
+        <v>-0.71</v>
       </c>
       <c r="E10" s="16">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="16">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="13">
-        <v>1618</v>
+        <v>1770</v>
       </c>
       <c r="C13" s="13">
-        <v>1728</v>
+        <v>2233</v>
       </c>
       <c r="D13" s="14">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>1603</v>
+        <v>1758</v>
       </c>
       <c r="H13" s="13">
-        <v>1710</v>
+        <v>2214</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="16">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="17">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.2</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" s="16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="16">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C15" s="16">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.44</v>
+        <v>-0.89</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="16">
-        <v>1549</v>
+        <v>1730</v>
       </c>
       <c r="C16" s="16">
-        <v>1635</v>
+        <v>2147</v>
       </c>
       <c r="D16" s="17">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.19</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>1539</v>
+        <v>1722</v>
       </c>
       <c r="H16" s="16">
-        <v>1622</v>
+        <v>2133</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>10818</v>
+        <v>9737</v>
       </c>
       <c r="C17" s="13">
-        <v>12557</v>
+        <v>10855</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="E17" s="13">
-        <v>6527</v>
+        <v>6439</v>
       </c>
       <c r="F17" s="13">
-        <v>7620</v>
+        <v>6635</v>
       </c>
       <c r="G17" s="13">
-        <v>4230</v>
+        <v>3239</v>
       </c>
       <c r="H17" s="13">
-        <v>4866</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>14</v>
+        <v>4150</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2</v>
       </c>
       <c r="J17" s="13">
         <v>2</v>
       </c>
       <c r="K17" s="13">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L17" s="13">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,25 +1812,25 @@
         <v>27</v>
       </c>
       <c r="B18" s="16">
-        <v>2792</v>
+        <v>2016</v>
       </c>
       <c r="C18" s="16">
-        <v>3225</v>
+        <v>2925</v>
       </c>
       <c r="D18" s="17">
-        <v>-0.13</v>
+        <v>-0.31</v>
       </c>
       <c r="E18" s="16">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="F18" s="16">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G18" s="16">
-        <v>2678</v>
+        <v>1860</v>
       </c>
       <c r="H18" s="16">
-        <v>3080</v>
+        <v>2739</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>14</v>
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="16">
+        <v>44</v>
+      </c>
+      <c r="L18" s="16">
         <v>45</v>
-      </c>
-      <c r="L18" s="16">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,37 +1850,37 @@
         <v>28</v>
       </c>
       <c r="B19" s="16">
-        <v>2729</v>
+        <v>2446</v>
       </c>
       <c r="C19" s="16">
-        <v>2984</v>
+        <v>2491</v>
       </c>
       <c r="D19" s="17">
-        <v>-8.5000000000000006E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E19" s="16">
-        <v>2679</v>
+        <v>2325</v>
       </c>
       <c r="F19" s="16">
-        <v>2731</v>
+        <v>2250</v>
       </c>
       <c r="G19" s="16">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H19" s="16">
-        <v>253</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>14</v>
+        <v>240</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1</v>
       </c>
       <c r="J19" s="16">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,22 +1888,22 @@
         <v>29</v>
       </c>
       <c r="B20" s="16">
-        <v>1681</v>
+        <v>1822</v>
       </c>
       <c r="C20" s="16">
-        <v>2361</v>
+        <v>2343</v>
       </c>
       <c r="D20" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.22</v>
       </c>
       <c r="E20" s="16">
-        <v>1653</v>
+        <v>1799</v>
       </c>
       <c r="F20" s="16">
-        <v>2336</v>
+        <v>2320</v>
       </c>
       <c r="G20" s="16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="16">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>14</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="B21" s="16">
-        <v>2095</v>
+        <v>1974</v>
       </c>
       <c r="C21" s="16">
-        <v>2273</v>
+        <v>1628</v>
       </c>
       <c r="D21" s="17">
-        <v>-7.8E-2</v>
+        <v>0.21</v>
       </c>
       <c r="E21" s="16">
-        <v>615</v>
+        <v>734</v>
       </c>
       <c r="F21" s="16">
-        <v>753</v>
+        <v>471</v>
       </c>
       <c r="G21" s="16">
-        <v>1478</v>
+        <v>1240</v>
       </c>
       <c r="H21" s="16">
-        <v>1515</v>
+        <v>1153</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,19 +1964,19 @@
         <v>31</v>
       </c>
       <c r="B22" s="16">
-        <v>1521</v>
+        <v>1479</v>
       </c>
       <c r="C22" s="16">
-        <v>1715</v>
+        <v>1468</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.11</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E22" s="16">
-        <v>1512</v>
+        <v>1470</v>
       </c>
       <c r="F22" s="16">
-        <v>1699</v>
+        <v>1455</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,19 +2002,19 @@
         <v>32</v>
       </c>
       <c r="B23" s="13">
-        <v>8931</v>
+        <v>8486</v>
       </c>
       <c r="C23" s="13">
-        <v>9385</v>
+        <v>8326</v>
       </c>
       <c r="D23" s="14">
-        <v>-4.8000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>8838</v>
+        <v>8393</v>
       </c>
       <c r="F23" s="13">
-        <v>9253</v>
+        <v>8198</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>14</v>
@@ -2023,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="13">
         <v>86</v>
       </c>
       <c r="L23" s="13">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,19 +2040,19 @@
         <v>33</v>
       </c>
       <c r="B24" s="16">
-        <v>1285</v>
+        <v>931</v>
       </c>
       <c r="C24" s="16">
-        <v>1119</v>
+        <v>781</v>
       </c>
       <c r="D24" s="17">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E24" s="16">
-        <v>1233</v>
+        <v>884</v>
       </c>
       <c r="F24" s="16">
-        <v>1052</v>
+        <v>716</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>14</v>
       </c>
       <c r="J24" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" s="16">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L24" s="16">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2078,19 +2078,19 @@
         <v>34</v>
       </c>
       <c r="B25" s="16">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="16">
-        <v>1155</v>
+        <v>786</v>
       </c>
       <c r="D25" s="17">
-        <v>-6.7000000000000004E-2</v>
+        <v>0.32</v>
       </c>
       <c r="E25" s="16">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="F25" s="16">
-        <v>1155</v>
+        <v>786</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>35</v>
       </c>
       <c r="B26" s="16">
-        <v>1125</v>
+        <v>1218</v>
       </c>
       <c r="C26" s="16">
-        <v>1072</v>
+        <v>1181</v>
       </c>
       <c r="D26" s="17">
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>1107</v>
+        <v>1201</v>
       </c>
       <c r="F26" s="16">
-        <v>1046</v>
+        <v>1153</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>14</v>
       </c>
       <c r="J26" s="16">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K26" s="16">
         <v>17</v>
       </c>
       <c r="L26" s="16">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,19 +2154,19 @@
         <v>36</v>
       </c>
       <c r="B27" s="16">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="C27" s="16">
-        <v>2955</v>
+        <v>2636</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.19</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E27" s="16">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="F27" s="16">
-        <v>2952</v>
+        <v>2634</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>14</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="16">
         <v>2</v>
@@ -2192,19 +2192,19 @@
         <v>37</v>
       </c>
       <c r="B28" s="16">
-        <v>1171</v>
+        <v>1064</v>
       </c>
       <c r="C28" s="16">
-        <v>1193</v>
+        <v>1009</v>
       </c>
       <c r="D28" s="17">
-        <v>-1.9E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E28" s="16">
-        <v>1155</v>
+        <v>1044</v>
       </c>
       <c r="F28" s="16">
-        <v>1165</v>
+        <v>985</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2218,11 +2218,11 @@
       <c r="J28" s="16">
         <v>0</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>14</v>
+      <c r="K28" s="16">
+        <v>20</v>
       </c>
       <c r="L28" s="16">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,19 +2230,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="16">
-        <v>1869</v>
+        <v>1720</v>
       </c>
       <c r="C29" s="16">
-        <v>1758</v>
+        <v>1809</v>
       </c>
       <c r="D29" s="17">
-        <v>6.3E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E29" s="16">
-        <v>1865</v>
+        <v>1716</v>
       </c>
       <c r="F29" s="16">
-        <v>1748</v>
+        <v>1799</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>39</v>
       </c>
       <c r="B30" s="16">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C30" s="16">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D30" s="17">
-        <v>-0.87</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E30" s="16">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F30" s="16">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2306,37 +2306,37 @@
         <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>7392</v>
+        <v>6230</v>
       </c>
       <c r="C31" s="13">
-        <v>6161</v>
+        <v>6231</v>
       </c>
       <c r="D31" s="14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13">
-        <v>6382</v>
+        <v>5444</v>
       </c>
       <c r="F31" s="13">
-        <v>5463</v>
+        <v>5492</v>
       </c>
       <c r="G31" s="13">
-        <v>990</v>
+        <v>768</v>
       </c>
       <c r="H31" s="13">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="I31" s="13">
         <v>1</v>
       </c>
       <c r="J31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" s="13">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="16">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D32" s="17">
+        <v>-1</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>1598</v>
+        <v>1244</v>
       </c>
       <c r="C34" s="16">
-        <v>1510</v>
+        <v>1314</v>
       </c>
       <c r="D34" s="17">
-        <v>5.8000000000000003E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E34" s="16">
-        <v>1581</v>
+        <v>1232</v>
       </c>
       <c r="F34" s="16">
-        <v>1478</v>
+        <v>1310</v>
       </c>
       <c r="G34" s="16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H34" s="16">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,19 +2458,19 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>1399</v>
+        <v>1136</v>
       </c>
       <c r="C35" s="16">
-        <v>977</v>
+        <v>827</v>
       </c>
       <c r="D35" s="17">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="E35" s="16">
-        <v>1396</v>
+        <v>1133</v>
       </c>
       <c r="F35" s="16">
-        <v>974</v>
+        <v>823</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>465</v>
+        <v>287</v>
       </c>
       <c r="C36" s="16">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="D36" s="17">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>464</v>
+        <v>285</v>
       </c>
       <c r="H36" s="16">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2534,25 +2534,25 @@
         <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>1054</v>
+        <v>723</v>
       </c>
       <c r="C37" s="16">
-        <v>796</v>
+        <v>735</v>
       </c>
       <c r="D37" s="17">
-        <v>0.32</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E37" s="16">
-        <v>1045</v>
+        <v>718</v>
       </c>
       <c r="F37" s="16">
-        <v>788</v>
+        <v>728</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="16">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37" s="16">
         <v>3</v>
@@ -2572,19 +2572,19 @@
         <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="C38" s="16">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="E38" s="16">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="F38" s="16">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="16">
         <v>4</v>
@@ -2610,25 +2610,25 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>447</v>
+        <v>292</v>
       </c>
       <c r="C39" s="16">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="D39" s="17">
-        <v>-0.17</v>
+        <v>-0.43</v>
       </c>
       <c r="E39" s="16">
-        <v>411</v>
+        <v>276</v>
       </c>
       <c r="F39" s="16">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="G39" s="16">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H39" s="16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>14</v>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L39" s="16">
         <v>5</v>
@@ -2648,25 +2648,25 @@
         <v>49</v>
       </c>
       <c r="B40" s="16">
-        <v>1992</v>
+        <v>2067</v>
       </c>
       <c r="C40" s="16">
-        <v>1446</v>
+        <v>2025</v>
       </c>
       <c r="D40" s="17">
-        <v>0.38</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E40" s="16">
-        <v>1517</v>
+        <v>1608</v>
       </c>
       <c r="F40" s="16">
-        <v>1149</v>
+        <v>1596</v>
       </c>
       <c r="G40" s="16">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="H40" s="16">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2686,25 +2686,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>5364</v>
+        <v>5078</v>
       </c>
       <c r="C41" s="13">
-        <v>4797</v>
+        <v>4588</v>
       </c>
       <c r="D41" s="14">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E41" s="13">
-        <v>5168</v>
+        <v>4804</v>
       </c>
       <c r="F41" s="13">
-        <v>4654</v>
+        <v>4267</v>
       </c>
       <c r="G41" s="13">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H41" s="13">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,19 +2724,19 @@
         <v>51</v>
       </c>
       <c r="B42" s="16">
-        <v>1580</v>
+        <v>1390</v>
       </c>
       <c r="C42" s="16">
-        <v>1585</v>
+        <v>1393</v>
       </c>
       <c r="D42" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E42" s="16">
-        <v>1580</v>
+        <v>1389</v>
       </c>
       <c r="F42" s="16">
-        <v>1583</v>
+        <v>1391</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -2762,19 +2762,19 @@
         <v>52</v>
       </c>
       <c r="B43" s="16">
-        <v>2477</v>
+        <v>2216</v>
       </c>
       <c r="C43" s="16">
-        <v>2328</v>
+        <v>2066</v>
       </c>
       <c r="D43" s="17">
-        <v>6.4000000000000001E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E43" s="16">
-        <v>2477</v>
+        <v>2216</v>
       </c>
       <c r="F43" s="16">
-        <v>2328</v>
+        <v>2066</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2800,25 +2800,25 @@
         <v>53</v>
       </c>
       <c r="B44" s="16">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C44" s="16">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="D44" s="17">
-        <v>1.0900000000000001</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E44" s="16">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F44" s="16">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G44" s="16">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H44" s="16">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2838,19 +2838,19 @@
         <v>54</v>
       </c>
       <c r="B45" s="16">
-        <v>997</v>
+        <v>1132</v>
       </c>
       <c r="C45" s="16">
-        <v>736</v>
+        <v>777</v>
       </c>
       <c r="D45" s="17">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="E45" s="16">
-        <v>985</v>
+        <v>1121</v>
       </c>
       <c r="F45" s="16">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="16">
         <v>16</v>
@@ -2876,25 +2876,25 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>11730</v>
+        <v>8795</v>
       </c>
       <c r="C46" s="13">
-        <v>9934</v>
+        <v>8254</v>
       </c>
       <c r="D46" s="14">
-        <v>0.18</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>5406</v>
+        <v>3575</v>
       </c>
       <c r="F46" s="13">
-        <v>4637</v>
+        <v>3986</v>
       </c>
       <c r="G46" s="13">
-        <v>6308</v>
+        <v>5210</v>
       </c>
       <c r="H46" s="13">
-        <v>5282</v>
+        <v>4254</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L46" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,25 +2914,25 @@
         <v>56</v>
       </c>
       <c r="B47" s="16">
-        <v>1346</v>
+        <v>896</v>
       </c>
       <c r="C47" s="16">
-        <v>915</v>
+        <v>683</v>
       </c>
       <c r="D47" s="17">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="E47" s="16">
-        <v>1103</v>
+        <v>661</v>
       </c>
       <c r="F47" s="16">
-        <v>793</v>
+        <v>523</v>
       </c>
       <c r="G47" s="16">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H47" s="16">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>57</v>
       </c>
       <c r="B48" s="16">
-        <v>540</v>
+        <v>393</v>
       </c>
       <c r="C48" s="16">
-        <v>703</v>
+        <v>763</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.23</v>
+        <v>-0.49</v>
       </c>
       <c r="E48" s="16">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="F48" s="16">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="G48" s="16">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="H48" s="16">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>1468</v>
+        <v>914</v>
       </c>
       <c r="C49" s="16">
-        <v>1373</v>
+        <v>953</v>
       </c>
       <c r="D49" s="17">
-        <v>6.9000000000000006E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E49" s="16">
-        <v>1330</v>
+        <v>820</v>
       </c>
       <c r="F49" s="16">
-        <v>1223</v>
+        <v>822</v>
       </c>
       <c r="G49" s="16">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="H49" s="16">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L49" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,25 +3028,25 @@
         <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>8377</v>
+        <v>6593</v>
       </c>
       <c r="C50" s="16">
-        <v>6943</v>
+        <v>5854</v>
       </c>
       <c r="D50" s="17">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="E50" s="16">
-        <v>2642</v>
+        <v>1843</v>
       </c>
       <c r="F50" s="16">
-        <v>2140</v>
+        <v>2086</v>
       </c>
       <c r="G50" s="16">
-        <v>5734</v>
+        <v>4749</v>
       </c>
       <c r="H50" s="16">
-        <v>4803</v>
+        <v>3768</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3066,25 +3066,25 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>8113</v>
+        <v>7587</v>
       </c>
       <c r="C51" s="13">
-        <v>8237</v>
+        <v>7699</v>
       </c>
       <c r="D51" s="14">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>7088</v>
+        <v>6602</v>
       </c>
       <c r="F51" s="13">
-        <v>7150</v>
+        <v>6633</v>
       </c>
       <c r="G51" s="13">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="H51" s="13">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L51" s="13">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,19 +3104,19 @@
         <v>61</v>
       </c>
       <c r="B52" s="16">
-        <v>1583</v>
+        <v>1196</v>
       </c>
       <c r="C52" s="16">
-        <v>1709</v>
+        <v>1404</v>
       </c>
       <c r="D52" s="17">
-        <v>-7.3999999999999996E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="E52" s="16">
-        <v>1583</v>
+        <v>1196</v>
       </c>
       <c r="F52" s="16">
-        <v>1709</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3142,19 +3142,19 @@
         <v>62</v>
       </c>
       <c r="B53" s="16">
-        <v>1350</v>
+        <v>1432</v>
       </c>
       <c r="C53" s="16">
-        <v>1162</v>
+        <v>1205</v>
       </c>
       <c r="D53" s="17">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E53" s="16">
-        <v>1349</v>
+        <v>1431</v>
       </c>
       <c r="F53" s="16">
-        <v>1160</v>
+        <v>1203</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>14</v>
@@ -3172,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="L53" s="16">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,25 +3218,25 @@
         <v>64</v>
       </c>
       <c r="B55" s="16">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="C55" s="16">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D55" s="17">
-        <v>-3.2000000000000001E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G55" s="16">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="H55" s="16">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="16">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3256,25 +3256,25 @@
         <v>65</v>
       </c>
       <c r="B56" s="16">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C56" s="16">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.39</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="E56" s="16">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F56" s="16">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G56" s="16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H56" s="16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3294,19 +3294,19 @@
         <v>66</v>
       </c>
       <c r="B57" s="16">
-        <v>1131</v>
+        <v>1043</v>
       </c>
       <c r="C57" s="16">
-        <v>988</v>
+        <v>1018</v>
       </c>
       <c r="D57" s="17">
-        <v>0.14000000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E57" s="16">
-        <v>1131</v>
+        <v>1043</v>
       </c>
       <c r="F57" s="16">
-        <v>988</v>
+        <v>1018</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3332,25 +3332,25 @@
         <v>67</v>
       </c>
       <c r="B58" s="16">
-        <v>1136</v>
+        <v>1038</v>
       </c>
       <c r="C58" s="16">
-        <v>1176</v>
+        <v>931</v>
       </c>
       <c r="D58" s="17">
-        <v>-3.4000000000000002E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E58" s="16">
-        <v>1085</v>
+        <v>1008</v>
       </c>
       <c r="F58" s="16">
-        <v>1128</v>
+        <v>891</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="16">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L58" s="16">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,25 +3370,25 @@
         <v>68</v>
       </c>
       <c r="B59" s="16">
-        <v>1933</v>
+        <v>1953</v>
       </c>
       <c r="C59" s="16">
-        <v>2143</v>
+        <v>2115</v>
       </c>
       <c r="D59" s="17">
-        <v>-9.8000000000000004E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>1890</v>
+        <v>1907</v>
       </c>
       <c r="F59" s="16">
-        <v>2084</v>
+        <v>2057</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I59" s="16">
         <v>0</v>
@@ -3396,8 +3396,8 @@
       <c r="J59" s="16">
         <v>0</v>
       </c>
-      <c r="K59" s="16" t="s">
-        <v>14</v>
+      <c r="K59" s="16">
+        <v>10</v>
       </c>
       <c r="L59" s="16">
         <v>13</v>
@@ -3408,25 +3408,25 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>549</v>
+        <v>318</v>
       </c>
       <c r="C60" s="13">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.16</v>
+        <v>-0.41</v>
       </c>
       <c r="E60" s="13">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F60" s="13">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G60" s="13">
-        <v>451</v>
+        <v>312</v>
       </c>
       <c r="H60" s="13">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="L60" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="17">
-        <v>0.64</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="L61" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,19 +3484,19 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C62" s="16">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.56000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="E62" s="16">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F62" s="16">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="C63" s="16">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="D63" s="17">
-        <v>1.6E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="E63" s="16">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <v>451</v>
+        <v>312</v>
       </c>
       <c r="H63" s="16">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,28 +3560,28 @@
         <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C64" s="13">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.28000000000000003</v>
+        <v>-0.19</v>
       </c>
       <c r="E64" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F64" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" s="13">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H64" s="13">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I64" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" s="13">
         <v>4</v>
@@ -3590,7 +3590,7 @@
         <v>14</v>
       </c>
       <c r="L64" s="13">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,28 +3598,28 @@
         <v>74</v>
       </c>
       <c r="B65" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65" s="16">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.5</v>
+        <v>-0.44</v>
       </c>
       <c r="E65" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F65" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I65" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" s="16">
         <v>4</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="B66" s="16">
+        <v>63</v>
+      </c>
+      <c r="C66" s="16">
         <v>61</v>
       </c>
-      <c r="C66" s="16">
-        <v>66</v>
-      </c>
       <c r="D66" s="17">
-        <v>-7.4999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="16">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H66" s="16">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="L66" s="16">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>54638</v>
+        <v>48126</v>
       </c>
       <c r="C67" s="13">
-        <v>53659</v>
+        <v>48943</v>
       </c>
       <c r="D67" s="14">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>39517</v>
+        <v>35274</v>
       </c>
       <c r="F67" s="13">
-        <v>39023</v>
+        <v>35427</v>
       </c>
       <c r="G67" s="13">
-        <v>14860</v>
+        <v>12624</v>
       </c>
       <c r="H67" s="13">
-        <v>14309</v>
+        <v>13209</v>
       </c>
       <c r="I67" s="13">
         <v>13</v>
       </c>
       <c r="J67" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K67" s="13">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="L67" s="13">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
